--- a/nriss-patch-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:22:07+00:00</t>
+    <t>2025-12-19T09:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-task-transport</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-task-transport|2.2.0-ballot</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -925,7 +925,7 @@
     <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-mode-de-transport-cisis</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-mode-de-transport-cisis|20250624152101</t>
   </si>
   <si>
     <t>typeTransport</t>
@@ -977,7 +977,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1005,7 +1005,7 @@
     <t>Task.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1220,7 +1220,7 @@
 Executer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1525,7 +1525,7 @@
     <t>Inputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/input-tddui-task-transport-valueset</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/input-tddui-task-transport-valueset|2.2.0-ballot</t>
   </si>
   <si>
     <t>Task.input.value[x]</t>
@@ -1573,7 +1573,7 @@
     <t>Task.input:typeMotorisation.value[x]</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-type-motorisation-cisis</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-type-motorisation-cisis|20250624152100</t>
   </si>
   <si>
     <t>Task.input:adresseDepart</t>
@@ -2168,7 +2168,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="143.0390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.46484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="78.97265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
